--- a/data_input/CR/CRR_Sep2023.xlsx
+++ b/data_input/CR/CRR_Sep2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48EC5A-4D3C-44CD-9CCD-AE5CB7A95561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61754F2-E8FD-406B-8F32-40C527A9C79E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="367">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1444,7 +1441,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1482,7 +1479,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1520,7 +1517,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2397,12 +2394,12 @@
         <v>36</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2">
         <v>750794184</v>
@@ -2411,7 +2408,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -2420,10 +2417,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -2513,7 +2510,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2525,7 +2522,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2572,7 +2569,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3">
         <v>750794593</v>
@@ -2581,7 +2578,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -2590,10 +2587,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -2683,7 +2680,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -2695,7 +2692,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2742,7 +2739,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4">
         <v>750751453</v>
@@ -2751,7 +2748,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -2760,10 +2757,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -2853,7 +2850,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -2862,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2906,7 +2903,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5">
         <v>750250182</v>
@@ -2915,7 +2912,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -2924,13 +2921,13 @@
         <v>243565</v>
       </c>
       <c r="AM5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2968,7 +2965,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2985,97 +2982,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3146,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3300,7 +3297,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3350,7 +3347,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3397,7 +3394,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3438,7 +3435,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3470,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3481,97 +3478,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3637,7 +3634,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3695,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3731,43 +3728,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3778,7 +3775,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="7">
         <v>750834213</v>
@@ -3787,7 +3784,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -3796,13 +3793,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3817,31 +3814,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>1.47</v>
@@ -3859,7 +3856,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3871,13 +3868,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3892,31 +3889,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3924,16 +3921,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -3942,16 +3939,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -3966,31 +3963,31 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
         <v>188</v>
       </c>
-      <c r="U3" t="s">
-        <v>189</v>
-      </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X3">
         <v>1.38</v>
@@ -4008,7 +4005,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4020,13 +4017,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4041,31 +4038,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4073,13 +4070,13 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -4094,7 +4091,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -4109,31 +4106,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X4">
         <v>7.59</v>
@@ -4151,7 +4148,7 @@
         <v>140</v>
       </c>
       <c r="AC4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4160,13 +4157,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4181,31 +4178,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4213,13 +4210,13 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -4228,13 +4225,13 @@
         <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -4249,31 +4246,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X5">
         <v>8.5500000000000007</v>
@@ -4291,16 +4288,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4315,31 +4312,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4347,7 +4344,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6">
         <v>750702166</v>
@@ -4356,7 +4353,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -4365,16 +4362,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -4389,31 +4386,31 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>1.1499999999999999</v>
@@ -4431,40 +4428,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4472,16 +4469,16 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
         <v>366</v>
-      </c>
-      <c r="B7" t="s">
-        <v>367</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4490,7 +4487,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="5">
         <v>243566</v>
@@ -4499,7 +4496,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -4514,31 +4511,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>6.02</v>
@@ -4556,105 +4553,105 @@
         <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4735,7 +4732,7 @@
   <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4795,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4831,43 +4828,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4878,7 +4875,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>750270320</v>
@@ -4887,7 +4884,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4896,7 +4893,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="5">
         <v>243262</v>
@@ -4905,7 +4902,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -4920,31 +4917,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>9.8699999999999992</v>
@@ -4962,7 +4959,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -4974,13 +4971,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4995,31 +4992,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -5027,7 +5024,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3">
         <v>670008348</v>
@@ -5036,7 +5033,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -5045,16 +5042,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -5069,31 +5066,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>1.79</v>
@@ -5111,7 +5108,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -5123,13 +5120,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -5144,31 +5141,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -5176,7 +5173,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4">
         <v>750375083</v>
@@ -5185,7 +5182,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -5194,7 +5191,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="5">
         <v>243320</v>
@@ -5203,7 +5200,7 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -5218,31 +5215,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X4">
         <v>2.71</v>
@@ -5260,7 +5257,7 @@
         <v>139</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -5269,13 +5266,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5290,31 +5287,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5322,7 +5319,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="8">
         <v>750079362</v>
@@ -5331,7 +5328,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -5346,7 +5343,7 @@
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -5361,31 +5358,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>7.16</v>
@@ -5403,16 +5400,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5427,31 +5424,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6">
         <v>750795156</v>
@@ -5468,7 +5465,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -5477,16 +5474,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -5501,31 +5498,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>0.85</v>
@@ -5543,40 +5540,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5584,13 +5581,13 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -5599,13 +5596,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I7" t="s">
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5620,31 +5617,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>1.52</v>
@@ -5662,27 +5659,27 @@
         <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -5691,16 +5688,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -5715,31 +5712,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" t="s">
-        <v>199</v>
       </c>
       <c r="X8">
         <v>0.69</v>
@@ -5757,15 +5754,15 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9">
         <v>750289737</v>
@@ -5774,7 +5771,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5783,16 +5780,16 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -5807,31 +5804,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>1.47</v>
@@ -5849,24 +5846,24 @@
         <v>140</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -5875,16 +5872,16 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -5899,31 +5896,31 @@
         <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>2.38</v>
@@ -5941,24 +5938,24 @@
         <v>138</v>
       </c>
       <c r="AC10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -5973,7 +5970,7 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
@@ -5988,31 +5985,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" t="s">
-        <v>199</v>
       </c>
       <c r="X11">
         <v>4.84</v>
@@ -6030,24 +6027,24 @@
         <v>139</v>
       </c>
       <c r="AC11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -6056,7 +6053,7 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H12" s="5">
         <v>243413</v>
@@ -6065,7 +6062,7 @@
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -6080,31 +6077,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
+        <v>197</v>
+      </c>
+      <c r="W12" t="s">
         <v>198</v>
-      </c>
-      <c r="W12" t="s">
-        <v>199</v>
       </c>
       <c r="X12">
         <v>2.46</v>
@@ -6122,15 +6119,15 @@
         <v>140</v>
       </c>
       <c r="AC12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13">
         <v>680020345</v>
@@ -6139,7 +6136,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -6148,7 +6145,7 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H13" s="10">
         <v>243171</v>
@@ -6157,7 +6154,7 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -6172,31 +6169,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" t="s">
         <v>198</v>
-      </c>
-      <c r="W13" t="s">
-        <v>199</v>
       </c>
       <c r="X13">
         <v>0.65</v>
@@ -6214,15 +6211,15 @@
         <v>138</v>
       </c>
       <c r="AC13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14">
         <v>750735539</v>
@@ -6231,7 +6228,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -6240,7 +6237,7 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H14" s="5">
         <v>243442</v>
@@ -6249,7 +6246,7 @@
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -6264,31 +6261,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X14">
         <v>16.45</v>
@@ -6306,15 +6303,15 @@
         <v>137</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15">
         <v>750796702</v>
@@ -6323,7 +6320,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -6332,7 +6329,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H15" s="5">
         <v>243596</v>
@@ -6341,7 +6338,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -6356,31 +6353,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>1.19</v>
@@ -6398,15 +6395,15 @@
         <v>141</v>
       </c>
       <c r="AC15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B16">
         <v>750907554</v>
@@ -6415,7 +6412,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -6424,16 +6421,16 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I16" t="s">
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
@@ -6448,31 +6445,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" t="s">
         <v>198</v>
-      </c>
-      <c r="W16" t="s">
-        <v>199</v>
       </c>
       <c r="X16">
         <v>2.98</v>
@@ -6490,15 +6487,15 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B17">
         <v>750845723</v>
@@ -6507,7 +6504,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -6516,13 +6513,13 @@
         <v>46</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
@@ -6537,31 +6534,31 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T17" t="s">
+        <v>187</v>
+      </c>
+      <c r="U17" t="s">
         <v>188</v>
       </c>
-      <c r="U17" t="s">
-        <v>189</v>
-      </c>
       <c r="V17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X17">
         <v>6</v>
@@ -6579,15 +6576,15 @@
         <v>139</v>
       </c>
       <c r="AC17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B18">
         <v>310002494</v>
@@ -6596,7 +6593,7 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -6605,16 +6602,16 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>58</v>
@@ -6629,31 +6626,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X18">
         <v>10.91</v>
@@ -6671,15 +6668,15 @@
         <v>137</v>
       </c>
       <c r="AC18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN18" t="s">
         <v>219</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B19">
         <v>680014897</v>
@@ -6688,7 +6685,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6697,13 +6694,13 @@
         <v>46</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -6718,31 +6715,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X19">
         <v>1.81</v>
@@ -6760,15 +6757,15 @@
         <v>139</v>
       </c>
       <c r="AC19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN19" t="s">
         <v>220</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B20">
         <v>750591674</v>
@@ -6777,7 +6774,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6792,7 +6789,7 @@
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -6807,31 +6804,31 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X20">
         <v>18.47</v>
@@ -6849,15 +6846,15 @@
         <v>137</v>
       </c>
       <c r="AC20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21">
         <v>750797170</v>
@@ -6866,7 +6863,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -6875,7 +6872,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H21" s="5">
         <v>243566</v>
@@ -6884,7 +6881,7 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s">
         <v>58</v>
@@ -6899,31 +6896,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X21">
         <v>89.45</v>
@@ -6941,15 +6938,15 @@
         <v>141</v>
       </c>
       <c r="AC21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22">
         <v>750800516</v>
@@ -6958,7 +6955,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -6967,7 +6964,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H22" s="5">
         <v>243566</v>
@@ -6976,7 +6973,7 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
         <v>57</v>
@@ -6991,31 +6988,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S22" t="s">
+        <v>184</v>
+      </c>
+      <c r="T22" t="s">
         <v>185</v>
       </c>
-      <c r="T22" t="s">
-        <v>186</v>
-      </c>
       <c r="U22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X22">
         <v>0.5</v>
@@ -7033,15 +7030,15 @@
         <v>141</v>
       </c>
       <c r="AC22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23">
         <v>750961557</v>
@@ -7050,7 +7047,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -7059,16 +7056,16 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>57</v>
@@ -7083,31 +7080,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X23">
         <v>24.62</v>
@@ -7125,22 +7122,22 @@
         <v>138</v>
       </c>
       <c r="AC23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H24" s="5"/>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H25" s="5"/>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -7226,7 +7223,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7285,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7321,43 +7318,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -7368,7 +7365,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2">
         <v>750962136</v>
@@ -7377,7 +7374,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -7386,16 +7383,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -7410,31 +7407,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>4.9000000000000004</v>
@@ -7452,7 +7449,7 @@
         <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -7464,13 +7461,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -7485,31 +7482,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -7517,7 +7514,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="8">
         <v>750819755</v>
@@ -7526,7 +7523,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -7535,16 +7532,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
         <v>58</v>
@@ -7559,31 +7556,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -7601,7 +7598,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -7613,13 +7610,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -7634,31 +7631,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -7666,7 +7663,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4">
         <v>750070640</v>
@@ -7675,7 +7672,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -7684,16 +7681,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -7708,31 +7705,31 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" t="s">
         <v>185</v>
       </c>
-      <c r="T4" t="s">
-        <v>186</v>
-      </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X4">
         <v>0.93</v>
@@ -7750,7 +7747,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -7759,13 +7756,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -7780,31 +7777,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -7812,16 +7809,16 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
         <v>295</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -7830,16 +7827,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -7854,31 +7851,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X5">
         <v>1.42</v>
@@ -7896,16 +7893,16 @@
         <v>140</v>
       </c>
       <c r="AC5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -7920,31 +7917,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -7952,7 +7949,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6">
         <v>750089926</v>
@@ -7961,7 +7958,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -7970,7 +7967,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="5">
         <v>243474</v>
@@ -7979,7 +7976,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -7994,31 +7991,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>1.82</v>
@@ -8036,40 +8033,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -8077,7 +8074,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7">
         <v>590001088</v>
@@ -8086,7 +8083,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -8095,16 +8092,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -8119,31 +8116,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>22.96</v>
@@ -8161,18 +8158,18 @@
         <v>139</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8">
         <v>750964128</v>
@@ -8181,7 +8178,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -8190,16 +8187,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -8214,31 +8211,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>12.68</v>
@@ -8256,21 +8253,21 @@
         <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -8285,7 +8282,7 @@
         <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -8300,31 +8297,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>1.1200000000000001</v>
@@ -8342,15 +8339,15 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10">
         <v>750908595</v>
@@ -8359,7 +8356,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -8368,16 +8365,16 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -8392,31 +8389,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X10">
         <v>1.01</v>
@@ -8434,15 +8431,15 @@
         <v>139</v>
       </c>
       <c r="AC10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11">
         <v>750894919</v>
@@ -8451,7 +8448,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
@@ -8460,7 +8457,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H11" s="5">
         <v>243262</v>
@@ -8469,7 +8466,7 @@
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
@@ -8484,31 +8481,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X11">
         <v>4.5599999999999996</v>
@@ -8526,15 +8523,15 @@
         <v>140</v>
       </c>
       <c r="AC11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12">
         <v>750921746</v>
@@ -8543,7 +8540,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -8552,16 +8549,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -8576,31 +8573,31 @@
         <v>76</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X12">
         <v>10.45</v>
@@ -8618,15 +8615,15 @@
         <v>140</v>
       </c>
       <c r="AC12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13">
         <v>750810685</v>
@@ -8635,7 +8632,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -8644,16 +8641,16 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
@@ -8668,31 +8665,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" t="s">
         <v>185</v>
       </c>
-      <c r="T13" t="s">
-        <v>186</v>
-      </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X13">
         <v>8.15</v>
@@ -8710,15 +8707,15 @@
         <v>140</v>
       </c>
       <c r="AC13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14">
         <v>750810662</v>
@@ -8727,7 +8724,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
@@ -8736,16 +8733,16 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -8760,31 +8757,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X14">
         <v>1.6</v>
@@ -8802,15 +8799,15 @@
         <v>140</v>
       </c>
       <c r="AC14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B15">
         <v>750894182</v>
@@ -8819,7 +8816,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -8828,7 +8825,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H15" s="5">
         <v>243505</v>
@@ -8837,7 +8834,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
@@ -8852,31 +8849,31 @@
         <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S15" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" t="s">
         <v>185</v>
       </c>
-      <c r="T15" t="s">
-        <v>186</v>
-      </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X15">
         <v>1.83</v>
@@ -8894,24 +8891,24 @@
         <v>141</v>
       </c>
       <c r="AC15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -8920,7 +8917,7 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" s="5">
         <v>243596</v>
@@ -8929,7 +8926,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -8944,31 +8941,31 @@
         <v>75</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X16">
         <v>1.27</v>
@@ -8986,15 +8983,15 @@
         <v>138</v>
       </c>
       <c r="AC16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17">
         <v>610003742</v>
@@ -9003,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -9012,13 +9009,13 @@
         <v>46</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>56</v>
@@ -9033,31 +9030,31 @@
         <v>78</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W17" t="s">
         <v>198</v>
-      </c>
-      <c r="W17" t="s">
-        <v>199</v>
       </c>
       <c r="X17">
         <v>1.25</v>
@@ -9075,21 +9072,21 @@
         <v>137</v>
       </c>
       <c r="AC17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -9098,7 +9095,7 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18" s="5">
         <v>243443</v>
@@ -9107,7 +9104,7 @@
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -9122,31 +9119,31 @@
         <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X18">
         <v>1.35</v>
@@ -9164,15 +9161,15 @@
         <v>139</v>
       </c>
       <c r="AC18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B19">
         <v>750846717</v>
@@ -9181,7 +9178,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -9190,16 +9187,16 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>57</v>
@@ -9214,31 +9211,31 @@
         <v>77</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
+        <v>187</v>
+      </c>
+      <c r="U19" t="s">
         <v>188</v>
       </c>
-      <c r="U19" t="s">
-        <v>189</v>
-      </c>
       <c r="V19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X19">
         <v>0.39</v>
@@ -9256,40 +9253,40 @@
         <v>137</v>
       </c>
       <c r="AC19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9557,7 +9554,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9613,7 +9610,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9666,7 +9663,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9713,7 +9710,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9751,7 +9748,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9768,97 +9765,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10108,7 +10105,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2">
         <v>750285641</v>
@@ -10117,7 +10114,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -10126,7 +10123,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>243413</v>
@@ -10219,7 +10216,7 @@
         <v>137</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10231,7 +10228,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10278,7 +10275,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3">
         <v>750960642</v>
@@ -10287,7 +10284,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -10296,10 +10293,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -10389,7 +10386,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10401,7 +10398,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10454,7 +10451,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10501,7 +10498,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10539,7 +10536,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10556,97 +10553,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10905,7 +10902,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10961,7 +10958,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11014,7 +11011,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11061,7 +11058,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11099,7 +11096,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11116,97 +11113,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11458,13 +11455,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -11473,7 +11470,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -11563,7 +11560,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11575,7 +11572,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11622,7 +11619,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3">
         <v>390004094</v>
@@ -11631,7 +11628,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -11640,7 +11637,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" s="5">
         <v>243413</v>
@@ -11733,7 +11730,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -11745,7 +11742,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11798,7 +11795,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11845,7 +11842,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11883,7 +11880,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11900,97 +11897,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12240,13 +12237,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -12255,7 +12252,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -12345,7 +12342,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -12357,7 +12354,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -12413,7 +12410,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -12466,7 +12463,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12513,7 +12510,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12551,7 +12548,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12568,97 +12565,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12886,7 +12883,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2">
         <v>750326504</v>
@@ -12895,7 +12892,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -12904,10 +12901,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -12985,7 +12982,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -12997,7 +12994,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -13035,7 +13032,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3">
         <v>750716560</v>
@@ -13044,7 +13041,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -13053,10 +13050,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -13134,7 +13131,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -13146,7 +13143,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -13190,7 +13187,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -13228,7 +13225,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13260,7 +13257,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13274,97 +13271,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13583,7 +13580,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2">
         <v>750851137</v>
@@ -13592,7 +13589,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -13601,10 +13598,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -13682,7 +13679,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -13694,7 +13691,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -13732,7 +13729,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>750360207</v>
@@ -13741,7 +13738,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -13750,7 +13747,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="5">
         <v>243565</v>
@@ -13831,7 +13828,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -13843,7 +13840,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -13881,13 +13878,13 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -13896,7 +13893,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5">
         <v>243474</v>
@@ -13977,7 +13974,7 @@
         <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -13986,7 +13983,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -14021,7 +14018,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5">
         <v>750398397</v>
@@ -14030,7 +14027,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -14039,7 +14036,7 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -14117,13 +14114,13 @@
         <v>138</v>
       </c>
       <c r="AH5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -14155,7 +14152,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -14169,97 +14166,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14507,7 +14504,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -14563,7 +14560,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -14616,7 +14613,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -14663,7 +14660,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -14698,7 +14695,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -14712,97 +14709,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
